--- a/data/pepato/pepato.xlsx
+++ b/data/pepato/pepato.xlsx
@@ -593,26 +593,7 @@
     <t xml:space="preserve">Stacked lines with markers</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[mean, std] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"># using matching_standard_reference_index PI</t>
-    </r>
+    <t xml:space="preserve">[mean, std] # using matching_standard_reference_index PI</t>
   </si>
   <si>
     <t xml:space="preserve">pattern_coa</t>
@@ -621,66 +602,7 @@
     <t xml:space="preserve">centre-of-activity (CoA) of basic patterns  (for each speed). The difference between CoA with that of the reference database would indicate significant changes in the timing of muscle module activation during walking in the exoskeleton. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">circular</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> mean, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">circular</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> std] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"># using matching_standard_reference_index PI</t>
-    </r>
+    <t xml:space="preserve">[circular mean, circular std] # using matching_standard_reference_index PI</t>
   </si>
   <si>
     <t xml:space="preserve">patterns_similarity</t>
@@ -1046,7 +968,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1081,12 +1003,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1180,7 +1096,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1357,7 +1273,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1365,20 +1281,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1475,7 +1387,7 @@
       <rgbColor rgb="FF4472C4"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFC000"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1504,9 +1416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>540720</xdr:colOff>
+      <xdr:colOff>540360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>2542320</xdr:rowOff>
+      <xdr:rowOff>2541960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1520,7 +1432,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2312280" y="9953640"/>
-          <a:ext cx="3647520" cy="2523240"/>
+          <a:ext cx="3647160" cy="2522880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1541,9 +1453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
+      <xdr:colOff>92520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1104120</xdr:rowOff>
+      <xdr:rowOff>1103760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1557,7 +1469,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3683880" y="3495600"/>
-          <a:ext cx="646920" cy="1104120"/>
+          <a:ext cx="646560" cy="1103760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4473,8 +4385,8 @@
   </sheetPr>
   <dimension ref="A1:Z358"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B118" activeCellId="0" sqref="B118"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B136" activeCellId="0" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4821,10 +4733,10 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="46" t="s">
+      <c r="B41" s="47" t="s">
         <v>100</v>
       </c>
       <c r="C41" s="27" t="s">
@@ -4891,16 +4803,16 @@
       <c r="A49" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="11" t="s">
         <v>107</v>
       </c>
       <c r="C49" s="48"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="33" t="s">
         <v>108</v>
       </c>
       <c r="C50" s="41" t="s">
@@ -4994,7 +4906,7 @@
       <c r="A60" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="47" t="s">
+      <c r="B60" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C60" s="48"/>
@@ -5006,7 +4918,7 @@
       <c r="A61" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B61" s="49" t="s">
+      <c r="B61" s="33" t="s">
         <v>112</v>
       </c>
       <c r="C61" s="41" t="s">
@@ -5125,7 +5037,7 @@
       <c r="A71" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="47" t="s">
+      <c r="B71" s="11" t="s">
         <v>113</v>
       </c>
       <c r="C71" s="48" t="s">
@@ -5139,7 +5051,7 @@
       <c r="A72" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="49" t="s">
+      <c r="B72" s="33" t="s">
         <v>115</v>
       </c>
       <c r="C72" s="27"/>
@@ -5221,7 +5133,7 @@
       <c r="A79" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="49" t="s">
+      <c r="B79" s="33" t="s">
         <v>116</v>
       </c>
       <c r="C79" s="2"/>
@@ -5366,7 +5278,7 @@
       <c r="A85" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="50" t="s">
+      <c r="B85" s="49" t="s">
         <v>119</v>
       </c>
       <c r="C85" s="27"/>
@@ -5398,7 +5310,7 @@
       <c r="A86" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="49" t="s">
         <v>82</v>
       </c>
       <c r="C86" s="27"/>
@@ -5855,26 +5767,26 @@
       <c r="B124" s="3"/>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="51" t="s">
+      <c r="A125" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B125" s="51"/>
+      <c r="B125" s="50"/>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="B126" s="52"/>
+      <c r="B126" s="51"/>
     </row>
     <row r="127" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
     </row>
     <row r="128" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="53" t="s">
+      <c r="A128" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B128" s="53" t="s">
+      <c r="B128" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5943,26 +5855,26 @@
       <c r="B137" s="3"/>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="52" t="s">
+      <c r="A138" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="B138" s="52"/>
+      <c r="B138" s="51"/>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="B139" s="52"/>
+      <c r="B139" s="51"/>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A141" s="53" t="s">
+      <c r="A141" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B141" s="53" t="s">
+      <c r="B141" s="52" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5976,7 +5888,7 @@
       <c r="C142" s="2"/>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A143" s="54" t="s">
+      <c r="A143" s="53" t="s">
         <v>145</v>
       </c>
       <c r="B143" s="11"/>
@@ -6020,25 +5932,25 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="55" t="s">
+      <c r="A150" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="B150" s="55"/>
+      <c r="B150" s="54"/>
       <c r="C150" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="54" t="s">
+      <c r="A151" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B151" s="56" t="s">
+      <c r="B151" s="55" t="s">
         <v>157</v>
       </c>
       <c r="C151" s="2"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="57" t="s">
+      <c r="A152" s="56" t="s">
         <v>143</v>
       </c>
       <c r="B152" s="36" t="s">
@@ -6047,35 +5959,35 @@
       <c r="C152" s="2"/>
     </row>
     <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="58" t="s">
+      <c r="A153" s="57" t="s">
         <v>145</v>
       </c>
       <c r="B153" s="24"/>
       <c r="C153" s="2"/>
     </row>
     <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="58" t="s">
+      <c r="A154" s="57" t="s">
         <v>159</v>
       </c>
       <c r="B154" s="24"/>
       <c r="C154" s="2"/>
     </row>
     <row r="155" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="58" t="s">
+      <c r="A155" s="57" t="s">
         <v>160</v>
       </c>
       <c r="B155" s="24"/>
       <c r="C155" s="2"/>
     </row>
     <row r="156" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="58" t="s">
+      <c r="A156" s="57" t="s">
         <v>150</v>
       </c>
       <c r="B156" s="24"/>
       <c r="C156" s="2"/>
     </row>
     <row r="157" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="58" t="s">
+      <c r="A157" s="57" t="s">
         <v>153</v>
       </c>
       <c r="B157" s="24"/>
@@ -6977,18 +6889,18 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="13"/>
